--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3419.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3419.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211699779085774</v>
+        <v>1.398627400398254</v>
       </c>
       <c r="B1">
-        <v>1.828708325291213</v>
+        <v>2.596854209899902</v>
       </c>
       <c r="C1">
-        <v>3.975284448266177</v>
+        <v>6.710230350494385</v>
       </c>
       <c r="D1">
-        <v>4.649436700927058</v>
+        <v>2.418612718582153</v>
       </c>
       <c r="E1">
-        <v>1.273199339378366</v>
+        <v>1.195956945419312</v>
       </c>
     </row>
   </sheetData>
